--- a/data/income_statement/3digits/total/081_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/081_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>081-Quarrying of stone, sand and clay</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>081-Quarrying of stone, sand and clay</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3448251.73628</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4487341.79112</v>
+        <v>4487341.791120001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>5739601.87862</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6348425.82314</v>
+        <v>6348741.56541</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7474659.331230001</v>
+        <v>7489138.58911</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7897087.69061</v>
+        <v>8079183.91145</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8986619.526420001</v>
+        <v>9508449.78967</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10477884.72003</v>
+        <v>10512318.90472</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13077080.87005</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15033359.84768</v>
+        <v>15081552.27432</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14077478.12011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14213508.36049</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16038962.818</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2971821.41604</v>
@@ -998,34 +909,39 @@
         <v>4795508.86455</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5415618.86144</v>
+        <v>5415733.07376</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6316625.72529</v>
+        <v>6330939.081139999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6623599.03471</v>
+        <v>6803016.28881</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7660857.68375</v>
+        <v>8082216.993969999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8927542.216840001</v>
+        <v>8957102.16721</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>10801672.40423</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12260755.83894</v>
+        <v>12308121.34191</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11050136.07813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11114191.10859</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12631093.934</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>394272.03719</v>
@@ -1034,37 +950,42 @@
         <v>640177.44101</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>841364.2666900001</v>
+        <v>841364.26669</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>800128.47091</v>
+        <v>800328.88565</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>987374.4345999999</v>
+        <v>987401.07054</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1046180.36022</v>
+        <v>1046209.64417</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1071804.92255</v>
+        <v>1165937.80887</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1205217.91302</v>
+        <v>1209176.01637</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1879086.86254</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2302781.95852</v>
+        <v>2303409.32906</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2589178.5465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2659926.23022</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2987548.118</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>82158.28305</v>
@@ -1076,73 +997,83 @@
         <v>102728.74738</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>132678.49079</v>
+        <v>132679.606</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>170659.17134</v>
+        <v>170798.43743</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>227308.29568</v>
+        <v>229957.97847</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>253956.92012</v>
+        <v>260294.98683</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>345124.59017</v>
+        <v>346040.72114</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>396321.60328</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>469822.05022</v>
+        <v>470021.60335</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>438163.49548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>439391.02168</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>420320.766</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>37730.52156</v>
+        <v>37730.52155999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>53283.17953</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>57242.58662</v>
+        <v>57242.58661999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>43457.44804</v>
+        <v>43457.44803999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>71040.04801</v>
+        <v>71099.44624</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>61391.4758</v>
+        <v>72474.70633</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>68236.68947999999</v>
+        <v>81970.45013999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>134512.90489</v>
+        <v>134787.18937</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>140105.39733</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>120128.4445</v>
+        <v>120266.58811</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>125196.04964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>125461.63188</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>213337.131</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>11430.86419</v>
@@ -1157,31 +1088,36 @@
         <v>21901.94154</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>24650.35225</v>
+        <v>24668.99099</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>30049.26522</v>
+        <v>41113.51129</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>37028.23486</v>
+        <v>50212.37526</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>97083.73708000001</v>
+        <v>97311.34212</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>92291.89972999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>75258.17117</v>
+        <v>75260.37358999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>82948.50615999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>83199.14612</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>177136.849</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2958.39886</v>
@@ -1196,16 +1132,16 @@
         <v>4971.85795</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8948.51504</v>
+        <v>8989.274530000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6664.96979</v>
+        <v>6683.95425</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9176.54243</v>
+        <v>9680.66187</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12766.68541</v>
+        <v>12769.05487</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>14516.24001</v>
@@ -1214,13 +1150,18 @@
         <v>13148.64449</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>17745.24499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17745.46957</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>13818.804</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23341.25851</v>
@@ -1241,25 +1182,30 @@
         <v>24677.24079</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>22031.91219000001</v>
+        <v>22077.41301</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>24662.4824</v>
+        <v>24706.79238</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>33297.25759</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>31721.62884</v>
+        <v>31857.57003</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>24502.29849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24517.01619</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>22381.478</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3410521.21472</v>
@@ -1271,34 +1217,39 @@
         <v>5682359.292</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6304968.375100001</v>
+        <v>6305284.11737</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7403619.283220001</v>
+        <v>7418039.142869999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7835696.214810001</v>
+        <v>8006709.205120001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8918382.836939998</v>
+        <v>9426479.33953</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10343371.81514</v>
+        <v>10377531.71535</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>12936975.47272</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14913231.40318</v>
+        <v>14961285.68621</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13952282.07047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14088046.72861</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15825625.687</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2633131.71858</v>
@@ -1310,34 +1261,39 @@
         <v>4377841.7847</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4930355.00942</v>
+        <v>4930872.23467</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5608560.49743</v>
+        <v>5618140.11317</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6025730.590969999</v>
+        <v>6125764.58489</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6854345.017279999</v>
+        <v>7152297.933790001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7969118.686470001</v>
+        <v>7997376.72419</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>9741315.678929999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11499441.03876</v>
+        <v>11545135.32356</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10585785.84153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10697541.67637</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11764739.931</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1688122.89926</v>
@@ -1349,34 +1305,39 @@
         <v>2699424.8157</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3158201.73858</v>
+        <v>3158229.70864</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3669279.08626</v>
+        <v>3675741.99588</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4059956.93177</v>
+        <v>4121037.43963</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4539303.34142</v>
+        <v>4713506.76296</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5251110.850649999</v>
+        <v>5265678.71021</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6465491.18309</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7923851.91487</v>
+        <v>7928540.840540001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7354854.62141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7391930.327889999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7754740.324</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>293370.38726</v>
@@ -1391,31 +1352,36 @@
         <v>512224.2794</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>616849.58875</v>
+        <v>617698.7615899999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>645404.3691400001</v>
+        <v>678143.60425</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>797774.9399400001</v>
+        <v>867592.31802</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>959954.95125</v>
+        <v>963586.7085599999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1274541.08044</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1381438.63074</v>
+        <v>1395777.12366</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1409420.18424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1415283.08794</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1997294.073</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>620272.05825</v>
@@ -1427,37 +1393,42 @@
         <v>1083397.1363</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1219583.91491</v>
+        <v>1220073.1701</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1285065.74857</v>
+        <v>1287333.28185</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1270242.13179</v>
+        <v>1276164.82557</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1446016.69632</v>
+        <v>1495453.08483</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1643464.56174</v>
+        <v>1652955.85498</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1843497.96585</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1997644.38766</v>
+        <v>2024311.25387</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1690192.89436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1757648.89365</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1852765</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>31366.37380999999</v>
+        <v>31366.37381</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>35090.58329</v>
@@ -1469,16 +1440,16 @@
         <v>40345.07653</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>37366.07385</v>
+        <v>37366.07384999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>50127.15826999999</v>
+        <v>50418.71544</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>71250.03959999999</v>
+        <v>75745.76798</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>114588.32283</v>
+        <v>115155.45044</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>157785.44955</v>
@@ -1487,13 +1458,18 @@
         <v>196506.10549</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>131318.14152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>132679.36689</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>159940.534</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>777389.4961399999</v>
@@ -1505,73 +1481,83 @@
         <v>1304517.5073</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1374613.36568</v>
+        <v>1374411.8827</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1795058.78579</v>
+        <v>1799899.0297</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1809965.62384</v>
+        <v>1880944.62023</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2064037.81966</v>
+        <v>2274181.40574</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2374253.12867</v>
+        <v>2380154.99116</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3195659.79379</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3413790.36442</v>
+        <v>3416150.36265</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3366496.22894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3390505.05224</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4060885.756</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>515231.58765</v>
+        <v>515231.5876500001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>711761.2100900001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>840306.6450999998</v>
+        <v>840306.6451000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>882315.13405</v>
+        <v>882895.35346</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1042688.38429</v>
+        <v>1048886.10522</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1196273.07518</v>
+        <v>1252659.39288</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1285538.66232</v>
+        <v>1441075.58798</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1453334.57482</v>
+        <v>1458096.79437</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1639061.6103</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2035923.63916</v>
+        <v>2039071.12222</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2007831.46366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2019837.49247</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2153703.84</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3171.06016</v>
@@ -1580,13 +1566,13 @@
         <v>3633.9211</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5665.82671</v>
+        <v>5665.826709999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>13759.93053</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7827.181050000001</v>
+        <v>7827.18105</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>6246.54933</v>
@@ -1604,13 +1590,18 @@
         <v>26549.04776</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>13839.52919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13840.77483</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>53099.483</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>208203.43806</v>
@@ -1625,112 +1616,127 @@
         <v>365886.077</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>429025.98488</v>
+        <v>430850.10132</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>463358.3064</v>
+        <v>477360.68051</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>508407.0780200001</v>
+        <v>535364.4841999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>531514.40783</v>
+        <v>533962.14584</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>695339.09094</v>
+        <v>695339.0909399999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>857474.01853</v>
+        <v>858150.37706</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>789346.31601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>793929.20427</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>822107.455</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>303857.08943</v>
+        <v>303857.0894299999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>377884.68184</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>464028.28879</v>
+        <v>464028.2887900001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>502669.12652</v>
+        <v>503249.34593</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>605835.2183600001</v>
+        <v>610208.8228499999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>726668.21945</v>
+        <v>769052.16304</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>766373.9771099999</v>
+        <v>894953.4965899999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>909427.79963</v>
+        <v>911742.2811700001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>932505.8866</v>
+        <v>932505.8865999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1151900.57287</v>
+        <v>1154371.6974</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1204645.61846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1212067.51337</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1278496.902</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>262157.90849</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>370369.57281</v>
+        <v>370369.5728099999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>464210.8622</v>
+        <v>464210.8621999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>492298.23163</v>
+        <v>491516.52924</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>752370.4015</v>
+        <v>751012.92448</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>613692.54866</v>
+        <v>628285.2273500001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>778499.1573399999</v>
+        <v>833105.81776</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>920918.5538500001</v>
+        <v>922058.19679</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1556598.18349</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1377866.72526</v>
+        <v>1377079.24043</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1358664.76528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1370667.55977</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1907181.916</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>94700.49146</v>
+        <v>94700.49145999999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>138572.92026</v>
@@ -1739,34 +1745,39 @@
         <v>237389.04455</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>222031.44624</v>
+        <v>222050.86813</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>276689.61124</v>
+        <v>276739.6362</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>269939.04784</v>
+        <v>328602.35254</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>391976.48443</v>
+        <v>467017.63072</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>537821.70975</v>
+        <v>539312.53198</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>622753.82014</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1499414.62485</v>
+        <v>1499465.01463</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>754425.9818399999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>756953.49303</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1159066.302</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>7154.223490000001</v>
@@ -1781,13 +1792,13 @@
         <v>4381.894730000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>9605.10598</v>
+        <v>9605.105979999998</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>13433.2312</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6878.08273</v>
+        <v>7786.57551</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>3109.02592</v>
@@ -1799,13 +1810,18 @@
         <v>12749.01109</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5344.08582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5581.392599999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>9687.428</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1025.09683</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>4170.39208</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1137.84</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16534.75999</v>
@@ -1859,16 +1880,16 @@
         <v>49060.32382</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>40739.54555</v>
+        <v>40739.55744999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>46412.91831</v>
+        <v>48574.78367</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>44888.29231</v>
+        <v>64015.72772</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>71963.37254</v>
+        <v>72530.48576</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>71998.65147999999</v>
@@ -1877,13 +1898,18 @@
         <v>133250.67899</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>118234.72755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>119746.09073</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>105176.917</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>177.13837</v>
@@ -1916,13 +1942,18 @@
         <v>4811.61691</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>943.91212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>947.2202400000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>588.037</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3197.29418</v>
@@ -1931,22 +1962,22 @@
         <v>1368.56274</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>851.48313</v>
+        <v>851.4831299999998</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>2272.14978</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>30187.56241</v>
+        <v>30187.56240999999</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>2054.7706</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2930.281100000001</v>
+        <v>2935.2811</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>31775.62193</v>
+        <v>31777.62193</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>45062.18670000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>33582.44256</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>32757.803</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>555.35801</v>
@@ -1985,7 +2021,7 @@
         <v>5442.22185</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>573.38534</v>
+        <v>576.8777899999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5684.00503</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1074.68159</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5708.95</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>45650.59462</v>
@@ -2012,34 +2053,39 @@
         <v>160274.25634</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>120681.23686</v>
+        <v>120700.65875</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>146272.8794</v>
+        <v>146273.45416</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>136970.20831</v>
+        <v>193151.03631</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>248096.58034</v>
+        <v>297994.5987</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>311459.91693</v>
+        <v>311826.66656</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>350520.5865800001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1135866.37989</v>
+        <v>1135874.13379</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>418395.5719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>419618.7429600001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>857463.861</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>95.05489999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>989.02459</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>905.634</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>121.91867</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>724.4513999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>665.8869999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>20189.0524</v>
@@ -2129,76 +2185,86 @@
         <v>38285.79851</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>40704.24504</v>
+        <v>40704.24504000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>41184.11745000001</v>
+        <v>41233.55575</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>66170.17017</v>
+        <v>66490.78151</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>78673.94699000001</v>
+        <v>83776.14673000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>115930.21219</v>
+        <v>116481.67912</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>134414.28601</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>160247.64888</v>
+        <v>160290.28476</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>170966.69223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>170519.05428</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>144973.945</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>68930.68881000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>83273.33171000001</v>
+        <v>83273.33171</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>162482.47834</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>98647.43713999999</v>
+        <v>98647.52681</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>204456.38759</v>
+        <v>204790.33488</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>177156.91421</v>
+        <v>239035.02293</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>350716.59962</v>
+        <v>534692.88557</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>496739.13375</v>
+        <v>497240.64975</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>526879.04481</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1265910.84426</v>
+        <v>1265920.41445</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>604130.6475699999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>604158.69438</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>772951.438</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6932.100210000001</v>
+        <v>6932.100209999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>3936.15274</v>
@@ -2207,7 +2273,7 @@
         <v>4238.926310000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4768.2161</v>
+        <v>4768.30577</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>1709.99572</v>
@@ -2216,10 +2282,10 @@
         <v>1730.50124</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1369.62467</v>
+        <v>1420.7225</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2232.234269999999</v>
+        <v>2232.23427</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>12481.9866</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>18246.24974</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>7588.337</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14024.05273</v>
@@ -2255,10 +2326,10 @@
         <v>13151.49701</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>15530.14071</v>
+        <v>17485.06857</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>39863.84906</v>
+        <v>39873.34906</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>35386.54194</v>
@@ -2267,13 +2338,18 @@
         <v>43630.57387</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>66993.13249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>66991.03249</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>31436.354</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>141.77421</v>
@@ -2297,7 +2373,7 @@
         <v>3339.35142</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2340.49042</v>
+        <v>2340.490420000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>2500.66785</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>3539.83938</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7694.361</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>38926.01637</v>
@@ -2324,34 +2405,39 @@
         <v>124925.56844</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>67422.64104</v>
+        <v>67422.64103999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>157103.49583</v>
+        <v>157437.44311</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>125980.38594</v>
+        <v>187833.19841</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>297136.75126</v>
+        <v>476336.0782299999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>424614.62024</v>
+        <v>425022.3128300001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>444526.92092</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1108563.76168</v>
+        <v>1108573.33087</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>445950.67977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>445963.21796</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>654954.165</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>34.08467</v>
@@ -2375,7 +2461,7 @@
         <v>1590.77138</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>445.7064099999999</v>
+        <v>445.70641</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>322.4839499999999</v>
@@ -2384,13 +2470,18 @@
         <v>2003.92897</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>899.6263999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>899.6264</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1616.866</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>34.68951</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8837.971109999999</v>
@@ -2444,73 +2540,83 @@
         <v>16686.34833</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>21884.85767</v>
+        <v>21884.85768</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>32582.17571</v>
+        <v>32607.47196</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>31749.95918</v>
+        <v>34520.89247</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>27242.23335</v>
+        <v>27326.55676</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>31660.44355</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>64295.48484</v>
+        <v>64295.48584</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>68501.11979000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>68518.72841</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>69661.355</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>90794.05821999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>93704.48068000001</v>
+        <v>93704.48067999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>173497.13608</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>219681.1459</v>
+        <v>219722.28286</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>185567.3064</v>
+        <v>185643.70407</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>205899.59565</v>
+        <v>219603.83618</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>244428.61205</v>
+        <v>284746.15289</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>312502.76222</v>
+        <v>312839.93214</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>358654.59561</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>624624.8911300001</v>
+        <v>624762.1498400001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>573564.2139300001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>573358.64809</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>485288.834</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>82555.96025</v>
+        <v>82555.96025000002</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>84468.04778000001</v>
@@ -2519,40 +2625,45 @@
         <v>112623.78495</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>113746.31539</v>
+        <v>113787.45235</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>155093.31218</v>
+        <v>155169.70985</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>175385.76469</v>
+        <v>176492.32928</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>222636.00414</v>
+        <v>262953.54498</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>296686.90937</v>
+        <v>297024.07929</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>343350.78694</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>582982.17351</v>
+        <v>583119.4322200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>552142.1426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>551936.57676</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>456881.853</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8238.097969999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>9236.432899999998</v>
+        <v>9236.4329</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>60873.35113</v>
@@ -2564,7 +2675,7 @@
         <v>30473.99422</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>30513.83096</v>
+        <v>43111.50690000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>21792.60791</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>21422.07133</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>28406.981</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>197133.65292</v>
@@ -2597,37 +2713,42 @@
         <v>365620.29233</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>396001.09483</v>
+        <v>395197.5877</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>639036.31875</v>
+        <v>637318.52173</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>500575.08664</v>
+        <v>498248.72078</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>575330.4301</v>
+        <v>480684.41002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>649498.36763</v>
+        <v>651290.14688</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1293818.36321</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>986745.6147200001</v>
+        <v>985861.69077</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>935395.88562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>950103.71033</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1808007.946</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>65919.00689999999</v>
+        <v>65919.00690000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>53600.41776</v>
@@ -2636,34 +2757,39 @@
         <v>96439.91395</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>82925.64993000001</v>
+        <v>82926.79286</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>120720.88588</v>
+        <v>120762.27168</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>128918.43559</v>
+        <v>133104.2831</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>138647.83749</v>
+        <v>143103.54623</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>217165.80399</v>
+        <v>218496.47937</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>218438.05932</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>223911.97156</v>
+        <v>223988.44746</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>345205.4288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>345941.45953</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>265029.658</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>582.11188</v>
@@ -2684,10 +2810,10 @@
         <v>491.00972</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2526.44058</v>
+        <v>2612.09998</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1131.04503</v>
+        <v>1764.43212</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1745.52494</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>5022.81601</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4679.349</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>65336.89502</v>
@@ -2714,34 +2845,39 @@
         <v>93572.20228</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>81390.47446000001</v>
+        <v>81391.61739</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>119116.8748</v>
+        <v>119158.2606</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>128427.42587</v>
+        <v>132613.27338</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>136121.39691</v>
+        <v>140491.44625</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>216034.75896</v>
+        <v>216732.04725</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>216692.53438</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>222792.83538</v>
+        <v>222869.31128</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>340182.61279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>340918.64352</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>260350.309</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>63691.38064</v>
@@ -2753,34 +2889,39 @@
         <v>275004.7514</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>97267.86688</v>
+        <v>97268.74837</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>156782.99853</v>
+        <v>157092.41628</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>194656.39317</v>
+        <v>198662.27235</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>179102.53912</v>
+        <v>185964.38633</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>318106.37715</v>
+        <v>318313.47349</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>207720.85377</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>375452.94464</v>
+        <v>375459.04266</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>330961.63001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>331499.31397</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>261058.172</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>13420.9101</v>
@@ -2801,10 +2942,10 @@
         <v>37546.38132</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>43868.97891</v>
+        <v>44570.22141</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>32703.68191</v>
+        <v>32799.58307</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>45890.01544</v>
@@ -2813,16 +2954,21 @@
         <v>120529.2088</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>139351.79404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>139403.43901</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>100639.843</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6607.81503</v>
+        <v>6607.815030000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>7406.39891</v>
@@ -2837,28 +2983,33 @@
         <v>6387.473730000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7628.185199999999</v>
+        <v>8694.76095</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9961.072370000002</v>
+        <v>9967.647949999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>12843.12862</v>
+        <v>12899.40246</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>16687.88283</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>25652.07655</v>
+        <v>25652.23448</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>20626.87583</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>10279.036</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>43662.65551</v>
@@ -2870,34 +3021,39 @@
         <v>241788.60597</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>74747.2264</v>
+        <v>74748.10789</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>109514.42904</v>
+        <v>109823.84679</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>149481.82665</v>
+        <v>152421.13008</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>125272.48784</v>
+        <v>131426.51697</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>272559.56662</v>
+        <v>272614.4879600001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>145142.9555</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>229271.65929</v>
+        <v>229277.59938</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>170982.96014</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>171468.99913</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>150139.293</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>199361.27918</v>
@@ -2909,40 +3065,45 @@
         <v>187055.45488</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>381658.87788</v>
+        <v>380855.63219</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>602974.2061</v>
+        <v>600988.37713</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>434837.12906</v>
+        <v>432690.73153</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>534875.72847</v>
+        <v>437823.56992</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>548557.7944700001</v>
+        <v>551473.15276</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1304535.56876</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>835204.6416400002</v>
+        <v>834391.0955699999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>949639.6844100001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>964545.85589</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1811979.432</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>52394.48828999999</v>
+        <v>52394.48829</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>68133.42227</v>
+        <v>68133.42227000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>88994.62128000001</v>
@@ -2951,31 +3112,36 @@
         <v>85820.30071000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>119714.80123</v>
+        <v>119746.19518</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>109640.73988</v>
+        <v>110372.76024</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>137564.81379</v>
+        <v>151444.52685</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>151629.23457</v>
+        <v>152346.69317</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>227792.90928</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>253585.26246</v>
+        <v>253615.46903</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>218935.03562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>222444.633</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>343801.4</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>146966.79089</v>
@@ -2987,31 +3153,34 @@
         <v>98060.8336</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>295838.5771699999</v>
+        <v>295035.3314799999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>483259.40487</v>
+        <v>481242.1819500001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>325196.3891799999</v>
+        <v>322317.97129</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>397310.9146799999</v>
+        <v>286379.04307</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>396928.5599</v>
+        <v>399126.45959</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1076742.65948</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>581619.3791799999</v>
+        <v>580775.62654</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>730704.64879</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>742101.22289</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1468178.032</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1995</v>
@@ -3041,31 +3213,34 @@
         <v>2202</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2383</v>
+        <v>2396</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2454</v>
+        <v>2472</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2449</v>
+        <v>2484</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2510</v>
+        <v>2524</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2608</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2695</v>
+        <v>2769</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2815</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>